--- a/data/trans_dic/IP1003-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,75</t>
+          <t>1,9; 11,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 13,36</t>
+          <t>3,54; 13,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 16,16</t>
+          <t>3,97; 15,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 22,53</t>
+          <t>5,07; 22,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 12,17</t>
+          <t>3,55; 12,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 10,81</t>
+          <t>1,59; 9,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,29</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 10,69</t>
+          <t>1,14; 11,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,01</t>
+          <t>3,65; 9,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,23</t>
+          <t>3,61; 9,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,38</t>
+          <t>2,32; 9,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 15,17</t>
+          <t>3,82; 13,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,28</t>
+          <t>5,69; 9,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,13</t>
+          <t>4,43; 8,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,41</t>
+          <t>3,94; 7,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 10,31</t>
+          <t>5,78; 10,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,66</t>
+          <t>3,93; 7,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,87</t>
+          <t>3,36; 6,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,79</t>
+          <t>3,52; 6,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,11</t>
+          <t>4,33; 8,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,9</t>
+          <t>5,31; 7,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,75</t>
+          <t>4,4; 6,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,67</t>
+          <t>4,14; 6,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,63</t>
+          <t>5,51; 8,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 10,25</t>
+          <t>3,88; 10,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,74</t>
+          <t>2,88; 9,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,85</t>
+          <t>1,25; 5,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,47</t>
+          <t>5,24; 13,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,9</t>
+          <t>3,59; 9,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,17</t>
+          <t>2,36; 7,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,18</t>
+          <t>2,46; 8,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,99</t>
+          <t>2,66; 8,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,73</t>
+          <t>4,36; 8,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,4</t>
+          <t>3,09; 7,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,13</t>
+          <t>2,35; 6,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,21</t>
+          <t>4,74; 9,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,43</t>
+          <t>5,36; 8,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,8</t>
+          <t>4,71; 7,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,74</t>
+          <t>3,98; 6,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,32</t>
+          <t>6,56; 10,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,52</t>
+          <t>4,59; 7,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,08</t>
+          <t>3,48; 6,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,98</t>
+          <t>3,3; 5,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,39</t>
+          <t>4,34; 7,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,57</t>
+          <t>5,36; 7,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,47</t>
+          <t>4,42; 6,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 5,99</t>
+          <t>3,93; 5,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,51</t>
+          <t>5,94; 8,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1003-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,49; 12,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,18; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 10,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 10,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 13,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 17,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>4,91; 22,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,55; 9,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,79; 10,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 9,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,94; 14,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,0</t>
+          <t>4,07; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,24</t>
+          <t>3,35; 6,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 15,17</t>
+          <t>3,46; 6,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 22,92</t>
+          <t>4,25; 8,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,02</t>
+          <t>5,66; 9,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,93</t>
+          <t>4,56; 8,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>3,7; 7,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 11,02</t>
+          <t>5,7; 10,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,5</t>
+          <t>5,38; 8,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,86</t>
+          <t>4,47; 6,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,22</t>
+          <t>4,17; 6,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 13,97</t>
+          <t>5,5; 8,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,47</t>
+          <t>3,71; 9,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,03</t>
+          <t>2,2; 7,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,39</t>
+          <t>2,47; 8,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,29</t>
+          <t>2,65; 8,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,83</t>
+          <t>3,67; 10,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,69</t>
+          <t>3,1; 9,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,85</t>
+          <t>1,5; 6,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,22</t>
+          <t>5,18; 13,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,95</t>
+          <t>4,43; 8,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,93</t>
+          <t>3,17; 7,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 6,61</t>
+          <t>2,43; 5,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,55</t>
+          <t>4,65; 10,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 10,27</t>
+          <t>4,59; 7,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 9,2</t>
+          <t>3,45; 6,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,52</t>
+          <t>3,29; 6,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 13,08</t>
+          <t>4,09; 7,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,54</t>
+          <t>5,44; 8,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,42</t>
+          <t>4,83; 7,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,04</t>
+          <t>3,92; 6,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,88</t>
+          <t>6,45; 10,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,8</t>
+          <t>5,46; 7,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,18</t>
+          <t>4,51; 6,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,22</t>
+          <t>4,01; 5,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,93</t>
+          <t>5,77; 8,42</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 8,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 7,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 6,7</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,56; 10,22</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,59; 7,54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 6,17</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 5,92</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 7,29</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 7,51</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 6,42</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>3,93; 5,88</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 8,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
